--- a/data/ADMET.xlsx
+++ b/data/ADMET.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学科建设\研究生培养\研究生数模竞赛题\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\mathmodel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B86567-189E-4C97-BB59-CDF8399E1DCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98EA0BC-656C-446C-8399-745A250427A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14720" yWindow="4080" windowWidth="19200" windowHeight="10310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="training" sheetId="1" r:id="rId1"/>
     <sheet name="test" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="2030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="2031">
   <si>
     <t>SMILES</t>
   </si>
@@ -6111,6 +6120,10 @@
   </si>
   <si>
     <t>CCC(=C(c1ccc(O)cc1)c2ccc(OCCN3CCCC3)cc2)Cc4ccccc4</t>
+  </si>
+  <si>
+    <t>hERG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6130,17 +6143,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6463,13 +6479,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1975"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A1960" workbookViewId="0">
+      <selection activeCell="G1966" sqref="G1966"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.59765625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="63.58203125" style="5" customWidth="1"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -6484,7 +6500,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>2030</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -45987,12 +46003,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="63.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -46012,7 +46028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1980</v>
       </c>
@@ -46022,7 +46038,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1981</v>
       </c>
@@ -46032,7 +46048,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1982</v>
       </c>
@@ -46042,7 +46058,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1983</v>
       </c>
@@ -46052,7 +46068,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1984</v>
       </c>
@@ -46062,7 +46078,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1985</v>
       </c>
@@ -46072,7 +46088,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1986</v>
       </c>
@@ -46082,7 +46098,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>1987</v>
       </c>
@@ -46092,7 +46108,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>1988</v>
       </c>
@@ -46102,7 +46118,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1989</v>
       </c>
@@ -46112,7 +46128,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>1990</v>
       </c>
@@ -46122,7 +46138,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>1991</v>
       </c>
@@ -46132,7 +46148,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>1992</v>
       </c>
@@ -46142,7 +46158,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>1993</v>
       </c>
@@ -46152,7 +46168,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>1994</v>
       </c>
@@ -46162,7 +46178,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>1995</v>
       </c>
@@ -46172,7 +46188,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>1996</v>
       </c>
@@ -46182,7 +46198,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>1997</v>
       </c>
@@ -46192,7 +46208,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>1998</v>
       </c>
@@ -46202,7 +46218,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>1999</v>
       </c>
@@ -46212,7 +46228,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>2000</v>
       </c>
@@ -46222,7 +46238,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>2001</v>
       </c>
@@ -46232,7 +46248,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>2002</v>
       </c>
@@ -46242,7 +46258,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>2003</v>
       </c>
@@ -46252,7 +46268,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>2004</v>
       </c>
@@ -46262,7 +46278,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>2005</v>
       </c>
@@ -46272,7 +46288,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>2006</v>
       </c>
@@ -46282,7 +46298,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>2007</v>
       </c>
@@ -46292,7 +46308,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>2008</v>
       </c>
@@ -46302,7 +46318,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>2009</v>
       </c>
@@ -46312,7 +46328,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>2010</v>
       </c>
@@ -46322,7 +46338,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>2011</v>
       </c>
@@ -46332,7 +46348,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>2012</v>
       </c>
@@ -46342,7 +46358,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>2013</v>
       </c>
@@ -46352,7 +46368,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>2014</v>
       </c>
@@ -46362,7 +46378,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>2015</v>
       </c>
@@ -46372,7 +46388,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>2016</v>
       </c>
@@ -46382,7 +46398,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>2017</v>
       </c>
@@ -46392,7 +46408,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>2018</v>
       </c>
@@ -46402,7 +46418,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>2019</v>
       </c>
@@ -46412,7 +46428,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>2020</v>
       </c>
@@ -46422,7 +46438,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>2021</v>
       </c>
@@ -46432,7 +46448,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>2022</v>
       </c>
@@ -46442,7 +46458,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>2023</v>
       </c>
@@ -46452,7 +46468,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>2024</v>
       </c>
@@ -46462,7 +46478,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>2025</v>
       </c>
@@ -46472,7 +46488,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>2026</v>
       </c>
@@ -46482,7 +46498,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>2027</v>
       </c>
@@ -46492,7 +46508,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>2028</v>
       </c>
@@ -46502,7 +46518,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>2029</v>
       </c>
